--- a/OpenStax_ College Algebra (Sample).xlsx
+++ b/OpenStax_ College Algebra (Sample).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ioann\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/allisonwang/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597294C7-B99C-4624-B87D-546A558001E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36FC8C9B-6FC3-6D45-B627-33FC9A853EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="18280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.1 Real Numbers" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="98">
   <si>
     <t>Problem Name</t>
   </si>
@@ -267,13 +267,73 @@
   </si>
   <si>
     <t>Multiply by π to obtain 180π.</t>
+  </si>
+  <si>
+    <t>chemeq3</t>
+  </si>
+  <si>
+    <t>At equilibrium, an aqueous solution of acetic acid (CH₃COOH) has these concentrations: [H+]=0.0032, [CH₃COO−]=0.0032M, [CH₃COOH]=0.210M</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1CrwvkTuOnobs7AYgX7MWqXFUYj0LXINi/edit</t>
+  </si>
+  <si>
+    <t>Module F</t>
+  </si>
+  <si>
+    <t>https://cahlr.github.io/OATutor-Content-Staging/#/debug/acb67bbchemeq3</t>
+  </si>
+  <si>
+    <t>acb67bbchemeq3</t>
+  </si>
+  <si>
+    <t>The equilibrium reaction is: CH₃COOH (aq)⇌H⁺ (aq)+CH₃COO⁻ (aq).</t>
+  </si>
+  <si>
+    <t>What is the value of the equilibrium constant K for this reaction in scientific notation?</t>
+  </si>
+  <si>
+    <t>4.88*10**(-5)</t>
+  </si>
+  <si>
+    <t>Identify the Reaction Components</t>
+  </si>
+  <si>
+    <t>Start by identifying the components involved in the equilibrium reaction: CH₃COOH (aq)⇌H⁺ (aq)+CH₃COO⁻ (aq).</t>
+  </si>
+  <si>
+    <t>openai</t>
+  </si>
+  <si>
+    <t>Write the Expression for K</t>
+  </si>
+  <si>
+    <t>The equilibrium constant expression K for the reaction is given by the formula: K=[H**+][CH_3COO**-]/[CH_3COOH].</t>
+  </si>
+  <si>
+    <t>Substitute the Concentrations</t>
+  </si>
+  <si>
+    <t>Substitute the given concentrations into the equilibrium expression: [H⁺]=0.0032, [CH₃COO⁻]=0.0032, and [CH₃COOH]=0.210.</t>
+  </si>
+  <si>
+    <t>Calculate the Numerator</t>
+  </si>
+  <si>
+    <t>Calculate the product of the concentrations of the products: 0.0032*0.0032.</t>
+  </si>
+  <si>
+    <t>Calculate the Equilibrium Constant</t>
+  </si>
+  <si>
+    <t>Divide the result from the previous step by the concentration of the reactant: (0.0032*0.0032)/0.210.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -284,11 +344,13 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -296,6 +358,7 @@
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -312,12 +375,29 @@
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -364,10 +444,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -377,8 +458,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -595,22 +679,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:V18"/>
+  <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" customWidth="1"/>
-    <col min="3" max="3" width="21.77734375" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" customWidth="1"/>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="21.83203125" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
     <col min="5" max="5" width="19.33203125" customWidth="1"/>
     <col min="12" max="12" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="13.2">
+    <row r="1" spans="1:22" ht="13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -675,7 +759,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="13.2">
+    <row r="2" spans="1:22" ht="13">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -724,7 +808,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="13.2">
+    <row r="3" spans="1:22" ht="13">
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
@@ -747,7 +831,7 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:22" ht="14.4">
+    <row r="4" spans="1:22" ht="13">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
@@ -777,7 +861,7 @@
       </c>
       <c r="U4" s="5"/>
     </row>
-    <row r="5" spans="1:22" ht="13.2">
+    <row r="5" spans="1:22" ht="13">
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
@@ -807,7 +891,7 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="1:22" ht="13.2">
+    <row r="6" spans="1:22" ht="13">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
@@ -830,7 +914,7 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="1:22" ht="13.2">
+    <row r="7" spans="1:22" ht="13">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -859,7 +943,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="13.2">
+    <row r="8" spans="1:22" ht="13">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -889,7 +973,7 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="1:22" ht="13.2">
+    <row r="9" spans="1:22" ht="13">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
@@ -914,7 +998,7 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="1:22" ht="13.2">
+    <row r="10" spans="1:22" ht="13">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -942,7 +1026,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="13.2">
+    <row r="11" spans="1:22" ht="13">
       <c r="A11" s="2" t="s">
         <v>64</v>
       </c>
@@ -982,7 +1066,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="13.2">
+    <row r="12" spans="1:22" ht="13">
       <c r="A12" s="2" t="s">
         <v>64</v>
       </c>
@@ -999,7 +1083,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="13.2">
+    <row r="13" spans="1:22" ht="13">
       <c r="A13" s="2" t="s">
         <v>64</v>
       </c>
@@ -1023,7 +1107,7 @@
       </c>
       <c r="Q13" s="8"/>
     </row>
-    <row r="14" spans="1:22" ht="13.2">
+    <row r="14" spans="1:22" ht="13">
       <c r="A14" s="2" t="s">
         <v>64</v>
       </c>
@@ -1043,7 +1127,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="13.2">
+    <row r="15" spans="1:22" ht="13">
       <c r="A15" s="2" t="s">
         <v>64</v>
       </c>
@@ -1070,7 +1154,7 @@
       </c>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:22" ht="13.2">
+    <row r="16" spans="1:22" ht="13">
       <c r="A16" s="2" t="s">
         <v>64</v>
       </c>
@@ -1090,7 +1174,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="13.2">
+    <row r="17" spans="1:21" ht="13">
       <c r="A17" s="2" t="s">
         <v>64</v>
       </c>
@@ -1116,7 +1200,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="13.2">
+    <row r="18" spans="1:21" ht="13">
       <c r="A18" s="2" t="s">
         <v>64</v>
       </c>
@@ -1135,6 +1219,270 @@
       <c r="H18" s="2" t="s">
         <v>58</v>
       </c>
+    </row>
+    <row r="20" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="22" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A22" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="M22" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="U22" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A23" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+    </row>
+    <row r="24" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A24" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+    </row>
+    <row r="25" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A25" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+    </row>
+    <row r="26" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A26" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+    </row>
+    <row r="27" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A27" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+    </row>
+    <row r="28" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A28" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1142,6 +1490,8 @@
     <hyperlink ref="J11" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
     <hyperlink ref="O11" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
     <hyperlink ref="T11" r:id="rId4" location="/debug/a6f9727real11" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="L22" r:id="rId5" xr:uid="{FAC7210A-C07E-A04D-93CE-F0CD3B7E4A04}"/>
+    <hyperlink ref="T22" r:id="rId6" location="/debug/acb67bbchemeq3" display="https://cahlr.github.io/OATutor-Content-Staging/ - /debug/acb67bbchemeq3" xr:uid="{1EBDD2B1-5B9B-E04F-8444-A7BE0EE00694}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
